--- a/data/datamodel_bikeshare.xlsx
+++ b/data/datamodel_bikeshare.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330C907E-E3F1-4BA4-9D9D-BB295B04FF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>Description (incl. Derivation)</t>
   </si>
@@ -166,9 +165,6 @@
   </si>
   <si>
     <t>binary target</t>
-  </si>
-  <si>
-    <t>cnt_multclass</t>
   </si>
   <si>
     <t>3-class target</t>
@@ -186,11 +182,20 @@
 - TBD
 </t>
   </si>
+  <si>
+    <t>cnt_multiclass</t>
+  </si>
+  <si>
+    <t>cnt_regr</t>
+  </si>
+  <si>
+    <t>continous target</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,10 +297,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -316,9 +321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -356,9 +361,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,26 +396,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,26 +431,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,11 +606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,14 +625,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -762,7 +733,7 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -782,7 +753,7 @@
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1018,44 +989,54 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
@@ -1065,8 +1046,16 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:F2"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
@@ -1076,61 +1065,52 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ba8eccd8462144bb9813117a56b929ea xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Less significant</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0add0edb-2bb9-4d9f-a115-ddb6d12046d5</TermId>
+        </TermInfo>
+      </Terms>
+    </ba8eccd8462144bb9813117a56b929ea>
+    <ce2ef25aac894839aecee4e5672cce7b xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Non-vital</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f3362186-e95f-4855-bae4-812d89aef0f6</TermId>
+        </TermInfo>
+      </Terms>
+    </ce2ef25aac894839aecee4e5672cce7b>
+    <g18011a5f53f4dd6a3ef14595a83f5e2 xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C2 - For internal use only</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2fb8bb20-c906-4f86-bc68-ed58066a8af3</TermId>
+        </TermInfo>
+      </Terms>
+    </g18011a5f53f4dd6a3ef14595a83f5e2>
+    <_dlc_DocId xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">S0003972_685A5925051143AA853BBCFEFA611504</_dlc_DocId>
+    <TaxCatchAll xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Value>5</Value>
+      <Value>4</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <_dlc_DocIdUrl xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Url>http://collab.munich.munichre.com/sites/S0003972/_layouts/DocIdRedir.aspx?ID=S0003972_685A5925051143AA853BBCFEFA611504</Url>
+      <Description>S0003972_685A5925051143AA853BBCFEFA611504</Description>
+    </_dlc_DocIdUrl>
+    <TaxKeywordTaxHTField xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MR Document" ma:contentTypeID="0x010100D6789BAFB01B42A7B057B8ABDE664543001A8EEB119D78464EB486E8129C06B0BF" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="33aad778b2456c9e18af8b9cf3739643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d07a1bb9-7583-4f6d-9865-57c0e5e69374" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b334c8185c192b988590019e5b38dc8f" ns2:_="">
     <xsd:import namespace="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
@@ -1331,69 +1311,78 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ba8eccd8462144bb9813117a56b929ea xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Less significant</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0add0edb-2bb9-4d9f-a115-ddb6d12046d5</TermId>
-        </TermInfo>
-      </Terms>
-    </ba8eccd8462144bb9813117a56b929ea>
-    <ce2ef25aac894839aecee4e5672cce7b xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Non-vital</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f3362186-e95f-4855-bae4-812d89aef0f6</TermId>
-        </TermInfo>
-      </Terms>
-    </ce2ef25aac894839aecee4e5672cce7b>
-    <g18011a5f53f4dd6a3ef14595a83f5e2 xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C2 - For internal use only</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2fb8bb20-c906-4f86-bc68-ed58066a8af3</TermId>
-        </TermInfo>
-      </Terms>
-    </g18011a5f53f4dd6a3ef14595a83f5e2>
-    <_dlc_DocId xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">S0003972_685A5925051143AA853BBCFEFA611504</_dlc_DocId>
-    <TaxCatchAll xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Value>5</Value>
-      <Value>4</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <_dlc_DocIdUrl xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Url>http://collab.munich.munichre.com/sites/S0003972/_layouts/DocIdRedir.aspx?ID=S0003972_685A5925051143AA853BBCFEFA611504</Url>
-      <Description>S0003972_685A5925051143AA853BBCFEFA611504</Description>
-    </_dlc_DocIdUrl>
-    <TaxKeywordTaxHTField xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7834EE8-291B-411A-9182-055C1719198E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA9ECB2-B3EE-4D07-A9D1-8A6BC651C7DB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16252F07-A9AA-44E9-BB0C-DD0D299A4301}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E073361B-0AA4-4C48-AC27-BEAC14508882}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1411,18 +1400,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16252F07-A9AA-44E9-BB0C-DD0D299A4301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA9ECB2-B3EE-4D07-A9D1-8A6BC651C7DB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7834EE8-291B-411A-9182-055C1719198E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/datamodel_bikeshare.xlsx
+++ b/data/datamodel_bikeshare.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>Description (incl. Derivation)</t>
   </si>
@@ -161,35 +161,41 @@
     <t>HK</t>
   </si>
   <si>
-    <t>cnt_class</t>
-  </si>
-  <si>
-    <t>binary target</t>
-  </si>
-  <si>
-    <t>3-class target</t>
-  </si>
-  <si>
     <t>CALC</t>
   </si>
   <si>
     <t>day_of_month</t>
   </si>
   <si>
+    <t>cnt_CLASS</t>
+  </si>
+  <si>
+    <t>cnt_REGR</t>
+  </si>
+  <si>
+    <t>cnt_MULTICLASS</t>
+  </si>
+  <si>
+    <t>sum of casual and registered</t>
+  </si>
+  <si>
     <t xml:space="preserve"># records: 13908
-Content: Blub
+Content: xxx
 Todo:
 - TBD
 </t>
   </si>
   <si>
-    <t>cnt_multiclass</t>
-  </si>
-  <si>
-    <t>cnt_regr</t>
-  </si>
-  <si>
-    <t>continous target</t>
+    <t>flag indicating kaggle competition test fold</t>
+  </si>
+  <si>
+    <t>binary (artificial) target</t>
+  </si>
+  <si>
+    <t>continous (artificial) target</t>
+  </si>
+  <si>
+    <t>3-class (artificial) target</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +228,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -282,22 +282,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -610,29 +607,29 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -697,7 +694,7 @@
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -715,7 +712,7 @@
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -733,7 +730,7 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -753,7 +750,7 @@
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -909,7 +906,7 @@
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
@@ -925,7 +922,7 @@
       <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
@@ -945,40 +942,44 @@
       <c r="D19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>45</v>
+      <c r="E21" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>8</v>
@@ -986,17 +987,17 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>52</v>
+      <c r="E22" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>8</v>
@@ -1004,17 +1005,17 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>46</v>
+      <c r="E23" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>8</v>
@@ -1022,10 +1023,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
@@ -1065,52 +1066,61 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ba8eccd8462144bb9813117a56b929ea xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Less significant</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0add0edb-2bb9-4d9f-a115-ddb6d12046d5</TermId>
-        </TermInfo>
-      </Terms>
-    </ba8eccd8462144bb9813117a56b929ea>
-    <ce2ef25aac894839aecee4e5672cce7b xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Non-vital</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f3362186-e95f-4855-bae4-812d89aef0f6</TermId>
-        </TermInfo>
-      </Terms>
-    </ce2ef25aac894839aecee4e5672cce7b>
-    <g18011a5f53f4dd6a3ef14595a83f5e2 xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C2 - For internal use only</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2fb8bb20-c906-4f86-bc68-ed58066a8af3</TermId>
-        </TermInfo>
-      </Terms>
-    </g18011a5f53f4dd6a3ef14595a83f5e2>
-    <_dlc_DocId xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">S0003972_685A5925051143AA853BBCFEFA611504</_dlc_DocId>
-    <TaxCatchAll xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Value>5</Value>
-      <Value>4</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <_dlc_DocIdUrl xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Url>http://collab.munich.munichre.com/sites/S0003972/_layouts/DocIdRedir.aspx?ID=S0003972_685A5925051143AA853BBCFEFA611504</Url>
-      <Description>S0003972_685A5925051143AA853BBCFEFA611504</Description>
-    </_dlc_DocIdUrl>
-    <TaxKeywordTaxHTField xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MR Document" ma:contentTypeID="0x010100D6789BAFB01B42A7B057B8ABDE664543001A8EEB119D78464EB486E8129C06B0BF" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="33aad778b2456c9e18af8b9cf3739643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d07a1bb9-7583-4f6d-9865-57c0e5e69374" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b334c8185c192b988590019e5b38dc8f" ns2:_="">
     <xsd:import namespace="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
@@ -1311,78 +1321,69 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ba8eccd8462144bb9813117a56b929ea xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Less significant</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0add0edb-2bb9-4d9f-a115-ddb6d12046d5</TermId>
+        </TermInfo>
+      </Terms>
+    </ba8eccd8462144bb9813117a56b929ea>
+    <ce2ef25aac894839aecee4e5672cce7b xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Non-vital</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f3362186-e95f-4855-bae4-812d89aef0f6</TermId>
+        </TermInfo>
+      </Terms>
+    </ce2ef25aac894839aecee4e5672cce7b>
+    <g18011a5f53f4dd6a3ef14595a83f5e2 xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C2 - For internal use only</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2fb8bb20-c906-4f86-bc68-ed58066a8af3</TermId>
+        </TermInfo>
+      </Terms>
+    </g18011a5f53f4dd6a3ef14595a83f5e2>
+    <_dlc_DocId xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">S0003972_685A5925051143AA853BBCFEFA611504</_dlc_DocId>
+    <TaxCatchAll xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Value>5</Value>
+      <Value>4</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <_dlc_DocIdUrl xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Url>http://collab.munich.munichre.com/sites/S0003972/_layouts/DocIdRedir.aspx?ID=S0003972_685A5925051143AA853BBCFEFA611504</Url>
+      <Description>S0003972_685A5925051143AA853BBCFEFA611504</Description>
+    </_dlc_DocIdUrl>
+    <TaxKeywordTaxHTField xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA9ECB2-B3EE-4D07-A9D1-8A6BC651C7DB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7834EE8-291B-411A-9182-055C1719198E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16252F07-A9AA-44E9-BB0C-DD0D299A4301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E073361B-0AA4-4C48-AC27-BEAC14508882}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1400,18 +1401,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16252F07-A9AA-44E9-BB0C-DD0D299A4301}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA9ECB2-B3EE-4D07-A9D1-8A6BC651C7DB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7834EE8-291B-411A-9182-055C1719198E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/datamodel_bikeshare.xlsx
+++ b/data/datamodel_bikeshare.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Description (incl. Derivation)</t>
   </si>
@@ -119,9 +119,6 @@
     <t>weekday</t>
   </si>
   <si>
-    <t>Mon-Sat</t>
-  </si>
-  <si>
     <t>workingday</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>nume</t>
   </si>
   <si>
-    <t>clear, misty, light rain, heavy rain</t>
-  </si>
-  <si>
     <t>temp</t>
   </si>
   <si>
@@ -179,23 +173,73 @@
     <t>sum of casual and registered</t>
   </si>
   <si>
+    <t>flag indicating kaggle competition test fold</t>
+  </si>
+  <si>
+    <t>original: {1: "1_winter", 2: "2_spring", 3: "3_summer", 4: "4_fall"}</t>
+  </si>
+  <si>
+    <t>original: {0: "2011", 1: "2012"}</t>
+  </si>
+  <si>
+    <t>original: {0: "No", 1: "Yes"}</t>
+  </si>
+  <si>
+    <t>original: {1: "1_clear", 2: "2_misty", 3: "3_light rain", 4: "4_heavy rain"}</t>
+  </si>
+  <si>
+    <t>1_Mon - 7_Sat</t>
+  </si>
+  <si>
+    <t>original: 1-7</t>
+  </si>
+  <si>
     <t xml:space="preserve"># records: 13908
-Content: xxx
-Todo:
-- TBD
+Content: https://archive.ics.uci.edu/ml/datasets/bike+sharing+dataset
+Info:
+- Original data is transformaed to make it readable, see comments below
 </t>
   </si>
   <si>
-    <t>flag indicating kaggle competition test fold</t>
-  </si>
-  <si>
-    <t>binary (artificial) target</t>
-  </si>
-  <si>
-    <t>continous (artificial) target</t>
-  </si>
-  <si>
-    <t>3-class (artificial) target</t>
+    <t>1_clear, 2_misty, 3_light rain, 4_heavy rain</t>
+  </si>
+  <si>
+    <t>Temperature in Celsius</t>
+  </si>
+  <si>
+    <t>Feeling temperature in Celsius</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>original data is are divided to 67 (max)</t>
+  </si>
+  <si>
+    <t>original data is scaled by (t-t_min)/(t_max-t_min), t_min=-8, t_max=+3</t>
+  </si>
+  <si>
+    <t>dito with t_min=-16, t_max=+50</t>
+  </si>
+  <si>
+    <t>count of casual users</t>
+  </si>
+  <si>
+    <t>count of registered users</t>
+  </si>
+  <si>
+    <t>continous (artificial) target: log(cnt+ 1)</t>
+  </si>
+  <si>
+    <t>01 - 31</t>
+  </si>
+  <si>
+    <t>0_low, 1_high
+'binary (artificial) target with "high" representing 20% highest counts</t>
+  </si>
+  <si>
+    <t>0_low, 1_high, 2_very_high
+'3-class (artificial) target, same as cnt_CLASS but with "very_high" 5% highest counts</t>
   </si>
 </sst>
 </file>
@@ -274,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -300,11 +344,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -607,7 +704,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -687,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -700,7 +797,9 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
@@ -718,7 +817,9 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
@@ -776,7 +877,9 @@
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
@@ -789,12 +892,14 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
@@ -804,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -812,41 +917,49 @@
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
@@ -856,13 +969,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -872,11 +989,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
@@ -888,13 +1007,15 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
@@ -904,11 +1025,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
@@ -920,11 +1043,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
@@ -936,99 +1061,100 @@
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
@@ -1060,67 +1186,69 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"target"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"nume"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"cate"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ba8eccd8462144bb9813117a56b929ea xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Less significant</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0add0edb-2bb9-4d9f-a115-ddb6d12046d5</TermId>
+        </TermInfo>
+      </Terms>
+    </ba8eccd8462144bb9813117a56b929ea>
+    <ce2ef25aac894839aecee4e5672cce7b xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Non-vital</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f3362186-e95f-4855-bae4-812d89aef0f6</TermId>
+        </TermInfo>
+      </Terms>
+    </ce2ef25aac894839aecee4e5672cce7b>
+    <g18011a5f53f4dd6a3ef14595a83f5e2 xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C2 - For internal use only</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2fb8bb20-c906-4f86-bc68-ed58066a8af3</TermId>
+        </TermInfo>
+      </Terms>
+    </g18011a5f53f4dd6a3ef14595a83f5e2>
+    <_dlc_DocId xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">S0003972_685A5925051143AA853BBCFEFA611504</_dlc_DocId>
+    <TaxCatchAll xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Value>5</Value>
+      <Value>4</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <_dlc_DocIdUrl xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Url>http://collab.munich.munichre.com/sites/S0003972/_layouts/DocIdRedir.aspx?ID=S0003972_685A5925051143AA853BBCFEFA611504</Url>
+      <Description>S0003972_685A5925051143AA853BBCFEFA611504</Description>
+    </_dlc_DocIdUrl>
+    <TaxKeywordTaxHTField xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MR Document" ma:contentTypeID="0x010100D6789BAFB01B42A7B057B8ABDE664543001A8EEB119D78464EB486E8129C06B0BF" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="33aad778b2456c9e18af8b9cf3739643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d07a1bb9-7583-4f6d-9865-57c0e5e69374" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b334c8185c192b988590019e5b38dc8f" ns2:_="">
     <xsd:import namespace="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
@@ -1321,69 +1449,78 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ba8eccd8462144bb9813117a56b929ea xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Less significant</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0add0edb-2bb9-4d9f-a115-ddb6d12046d5</TermId>
-        </TermInfo>
-      </Terms>
-    </ba8eccd8462144bb9813117a56b929ea>
-    <ce2ef25aac894839aecee4e5672cce7b xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Non-vital</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f3362186-e95f-4855-bae4-812d89aef0f6</TermId>
-        </TermInfo>
-      </Terms>
-    </ce2ef25aac894839aecee4e5672cce7b>
-    <g18011a5f53f4dd6a3ef14595a83f5e2 xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C2 - For internal use only</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2fb8bb20-c906-4f86-bc68-ed58066a8af3</TermId>
-        </TermInfo>
-      </Terms>
-    </g18011a5f53f4dd6a3ef14595a83f5e2>
-    <_dlc_DocId xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">S0003972_685A5925051143AA853BBCFEFA611504</_dlc_DocId>
-    <TaxCatchAll xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Value>5</Value>
-      <Value>4</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <_dlc_DocIdUrl xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Url>http://collab.munich.munichre.com/sites/S0003972/_layouts/DocIdRedir.aspx?ID=S0003972_685A5925051143AA853BBCFEFA611504</Url>
-      <Description>S0003972_685A5925051143AA853BBCFEFA611504</Description>
-    </_dlc_DocIdUrl>
-    <TaxKeywordTaxHTField xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7834EE8-291B-411A-9182-055C1719198E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA9ECB2-B3EE-4D07-A9D1-8A6BC651C7DB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16252F07-A9AA-44E9-BB0C-DD0D299A4301}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E073361B-0AA4-4C48-AC27-BEAC14508882}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1401,18 +1538,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16252F07-A9AA-44E9-BB0C-DD0D299A4301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA9ECB2-B3EE-4D07-A9D1-8A6BC651C7DB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7834EE8-291B-411A-9182-055C1719198E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/datamodel_bikeshare.xlsx
+++ b/data/datamodel_bikeshare.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>Description (incl. Derivation)</t>
   </si>
@@ -240,6 +240,12 @@
   <si>
     <t>0_low, 1_high, 2_very_high
 '3-class (artificial) target, same as cnt_CLASS but with "very_high" 5% highest counts</t>
+  </si>
+  <si>
+    <t>high_card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hum as string, just for illustrating purposes </t>
   </si>
 </sst>
 </file>
@@ -341,17 +347,17 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -370,34 +376,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -703,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,14 +697,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1152,7 +1130,7 @@
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -1165,13 +1143,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
@@ -1203,52 +1191,61 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ba8eccd8462144bb9813117a56b929ea xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Less significant</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0add0edb-2bb9-4d9f-a115-ddb6d12046d5</TermId>
-        </TermInfo>
-      </Terms>
-    </ba8eccd8462144bb9813117a56b929ea>
-    <ce2ef25aac894839aecee4e5672cce7b xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Non-vital</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f3362186-e95f-4855-bae4-812d89aef0f6</TermId>
-        </TermInfo>
-      </Terms>
-    </ce2ef25aac894839aecee4e5672cce7b>
-    <g18011a5f53f4dd6a3ef14595a83f5e2 xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C2 - For internal use only</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2fb8bb20-c906-4f86-bc68-ed58066a8af3</TermId>
-        </TermInfo>
-      </Terms>
-    </g18011a5f53f4dd6a3ef14595a83f5e2>
-    <_dlc_DocId xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">S0003972_685A5925051143AA853BBCFEFA611504</_dlc_DocId>
-    <TaxCatchAll xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Value>5</Value>
-      <Value>4</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <_dlc_DocIdUrl xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Url>http://collab.munich.munichre.com/sites/S0003972/_layouts/DocIdRedir.aspx?ID=S0003972_685A5925051143AA853BBCFEFA611504</Url>
-      <Description>S0003972_685A5925051143AA853BBCFEFA611504</Description>
-    </_dlc_DocIdUrl>
-    <TaxKeywordTaxHTField xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MR Document" ma:contentTypeID="0x010100D6789BAFB01B42A7B057B8ABDE664543001A8EEB119D78464EB486E8129C06B0BF" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="33aad778b2456c9e18af8b9cf3739643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d07a1bb9-7583-4f6d-9865-57c0e5e69374" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b334c8185c192b988590019e5b38dc8f" ns2:_="">
     <xsd:import namespace="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
@@ -1449,78 +1446,69 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ba8eccd8462144bb9813117a56b929ea xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Less significant</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0add0edb-2bb9-4d9f-a115-ddb6d12046d5</TermId>
+        </TermInfo>
+      </Terms>
+    </ba8eccd8462144bb9813117a56b929ea>
+    <ce2ef25aac894839aecee4e5672cce7b xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Non-vital</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f3362186-e95f-4855-bae4-812d89aef0f6</TermId>
+        </TermInfo>
+      </Terms>
+    </ce2ef25aac894839aecee4e5672cce7b>
+    <g18011a5f53f4dd6a3ef14595a83f5e2 xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C2 - For internal use only</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2fb8bb20-c906-4f86-bc68-ed58066a8af3</TermId>
+        </TermInfo>
+      </Terms>
+    </g18011a5f53f4dd6a3ef14595a83f5e2>
+    <_dlc_DocId xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">S0003972_685A5925051143AA853BBCFEFA611504</_dlc_DocId>
+    <TaxCatchAll xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Value>5</Value>
+      <Value>4</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <_dlc_DocIdUrl xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Url>http://collab.munich.munichre.com/sites/S0003972/_layouts/DocIdRedir.aspx?ID=S0003972_685A5925051143AA853BBCFEFA611504</Url>
+      <Description>S0003972_685A5925051143AA853BBCFEFA611504</Description>
+    </_dlc_DocIdUrl>
+    <TaxKeywordTaxHTField xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA9ECB2-B3EE-4D07-A9D1-8A6BC651C7DB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7834EE8-291B-411A-9182-055C1719198E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16252F07-A9AA-44E9-BB0C-DD0D299A4301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E073361B-0AA4-4C48-AC27-BEAC14508882}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1538,18 +1526,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16252F07-A9AA-44E9-BB0C-DD0D299A4301}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA9ECB2-B3EE-4D07-A9D1-8A6BC651C7DB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7834EE8-291B-411A-9182-055C1719198E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>